--- a/docs/QQ消息格式.xlsx
+++ b/docs/QQ消息格式.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\13QQhistoryback\QQHistoryExport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\13QQhistoryback\QQHistoryExport\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BEE8A0A-DC3A-46DC-97C5-35DF4276B188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E01245A-52EA-4F98-A222-40FB63609745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1590" yWindow="600" windowWidth="26115" windowHeight="14730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -296,10 +296,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>文件大小文件名md5 sha1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>转发消息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -308,10 +304,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一层java序列化不知道套了一层什么</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>群语音通话发起</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -483,6 +475,14 @@
   </si>
   <si>
     <t>私聊语音/视频通话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一层java序列化不知道套了一层什么，可能是某种xml二进制序列化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件 大小 文件名md5 sha1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -822,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I10" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="I4" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -872,7 +872,7 @@
         <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J2" t="s">
         <v>29</v>
@@ -928,7 +928,7 @@
         <v>45</v>
       </c>
       <c r="P3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -959,7 +959,7 @@
         <v>45</v>
       </c>
       <c r="P4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -985,7 +985,7 @@
         <v>36</v>
       </c>
       <c r="K5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>67</v>
@@ -997,7 +997,7 @@
         <v>47</v>
       </c>
       <c r="P5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -1007,13 +1007,13 @@
         <v>-2042</v>
       </c>
       <c r="J6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>51</v>
@@ -1022,7 +1022,7 @@
         <v>47</v>
       </c>
       <c r="P6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -1104,10 +1104,10 @@
         <v>41</v>
       </c>
       <c r="K9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>51</v>
@@ -1116,7 +1116,7 @@
         <v>47</v>
       </c>
       <c r="P9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -1145,7 +1145,7 @@
         <v>45</v>
       </c>
       <c r="P10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -1155,13 +1155,13 @@
         <v>-2016</v>
       </c>
       <c r="J11" t="s">
+        <v>70</v>
+      </c>
+      <c r="K11" t="s">
         <v>72</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>51</v>
@@ -1170,7 +1170,7 @@
         <v>47</v>
       </c>
       <c r="P11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -1180,13 +1180,13 @@
         <v>-4008</v>
       </c>
       <c r="J12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K12" t="s">
         <v>35</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>50</v>
@@ -1195,7 +1195,7 @@
         <v>50</v>
       </c>
       <c r="P12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -1205,13 +1205,13 @@
         <v>-1013</v>
       </c>
       <c r="J13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K13" t="s">
         <v>35</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>50</v>
@@ -1220,7 +1220,7 @@
         <v>50</v>
       </c>
       <c r="P13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -1230,13 +1230,13 @@
         <v>-2009</v>
       </c>
       <c r="J14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>51</v>
@@ -1245,7 +1245,7 @@
         <v>47</v>
       </c>
       <c r="P14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -1255,13 +1255,13 @@
         <v>-1001</v>
       </c>
       <c r="J15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>51</v>
@@ -1270,7 +1270,7 @@
         <v>47</v>
       </c>
       <c r="P15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -1280,13 +1280,13 @@
         <v>-5012</v>
       </c>
       <c r="J16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K16" t="s">
         <v>37</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>51</v>
@@ -1295,7 +1295,7 @@
         <v>47</v>
       </c>
       <c r="P16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -1305,13 +1305,13 @@
         <v>-5018</v>
       </c>
       <c r="J17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K17" t="s">
         <v>37</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>51</v>
@@ -1320,7 +1320,7 @@
         <v>47</v>
       </c>
       <c r="P17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
@@ -1355,7 +1355,7 @@
         <v>47</v>
       </c>
       <c r="P19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
@@ -1378,7 +1378,7 @@
         <v>47</v>
       </c>
       <c r="P20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
@@ -1392,7 +1392,7 @@
         <v>52</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>51</v>
@@ -1401,7 +1401,7 @@
         <v>47</v>
       </c>
       <c r="P21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
@@ -1409,7 +1409,7 @@
         <v>-2022</v>
       </c>
       <c r="J22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K22" t="s">
         <v>52</v>
@@ -1424,7 +1424,7 @@
         <v>47</v>
       </c>
       <c r="P22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
@@ -1432,13 +1432,13 @@
         <v>-8018</v>
       </c>
       <c r="J23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K23" t="s">
         <v>52</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M23" s="2" t="s">
         <v>51</v>
@@ -1447,7 +1447,7 @@
         <v>47</v>
       </c>
       <c r="P23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
@@ -1458,13 +1458,13 @@
         <v>-5040</v>
       </c>
       <c r="J24" t="s">
+        <v>98</v>
+      </c>
+      <c r="K24" t="s">
+        <v>99</v>
+      </c>
+      <c r="L24" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="K24" t="s">
-        <v>101</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="M24" s="2" t="s">
         <v>51</v>
@@ -1473,7 +1473,7 @@
         <v>47</v>
       </c>
       <c r="P24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
@@ -1481,7 +1481,7 @@
         <v>-5020</v>
       </c>
       <c r="J25" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K25" t="s">
         <v>52</v>
@@ -1494,7 +1494,7 @@
         <v>48</v>
       </c>
       <c r="P25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
@@ -1532,7 +1532,7 @@
         <v>62</v>
       </c>
       <c r="K28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>64</v>
@@ -1544,7 +1544,7 @@
         <v>47</v>
       </c>
       <c r="P28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
@@ -1558,7 +1558,7 @@
         <v>66</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="M29" s="2" t="s">
         <v>51</v>
@@ -1567,7 +1567,7 @@
         <v>47</v>
       </c>
       <c r="P29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
@@ -1575,13 +1575,13 @@
         <v>-2025</v>
       </c>
       <c r="J30" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="M30" s="2" t="s">
         <v>59</v>
@@ -1590,7 +1590,7 @@
         <v>48</v>
       </c>
       <c r="P30" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
@@ -1598,13 +1598,13 @@
         <v>-2011</v>
       </c>
       <c r="J31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K31" t="s">
         <v>69</v>
       </c>
-      <c r="K31" t="s">
-        <v>70</v>
-      </c>
       <c r="L31" s="2" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="M31" s="2" t="s">
         <v>59</v>
@@ -1613,7 +1613,7 @@
         <v>48</v>
       </c>
       <c r="P31" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
@@ -1621,13 +1621,13 @@
         <v>-5008</v>
       </c>
       <c r="J32" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M32" s="2" t="s">
         <v>51</v>
@@ -1636,7 +1636,7 @@
         <v>47</v>
       </c>
       <c r="P32" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="9:16" x14ac:dyDescent="0.2">
@@ -1644,7 +1644,7 @@
         <v>-2007</v>
       </c>
       <c r="J33" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K33" t="s">
         <v>66</v>
@@ -1664,7 +1664,7 @@
         <v>-2025</v>
       </c>
       <c r="J34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K34" t="s">
         <v>66</v>
@@ -1684,13 +1684,13 @@
         <v>-2060</v>
       </c>
       <c r="J36" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K36" t="s">
         <v>37</v>
       </c>
       <c r="L36" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M36" s="2" t="s">
         <v>59</v>
@@ -1699,7 +1699,7 @@
         <v>48</v>
       </c>
       <c r="P36" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="9:16" x14ac:dyDescent="0.2">
@@ -1707,13 +1707,13 @@
         <v>-7010</v>
       </c>
       <c r="J37" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K37" t="s">
         <v>37</v>
       </c>
       <c r="L37" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M37" s="2" t="s">
         <v>59</v>
@@ -1722,7 +1722,7 @@
         <v>48</v>
       </c>
       <c r="P37" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
